--- a/importstudentinclassonly.xlsx
+++ b/importstudentinclassonly.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Ivy Ann</t>
   </si>
@@ -52,12 +52,6 @@
   </si>
   <si>
     <t>Albarado</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
   </si>
   <si>
     <t>gender</t>
@@ -417,7 +411,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,22 +426,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -463,12 +457,6 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2">
-        <v>16</v>
-      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -483,12 +471,6 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3">
-        <v>22</v>
-      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -503,12 +485,6 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -522,12 +498,6 @@
       </c>
       <c r="D5" t="s">
         <v>11</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
